--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\DemoModels\DemoS_001(Simplified)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\DemoModels_SelfLearning\DemoS_001_SL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCAB457-BE9A-411B-B942-6A029436960B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40666B1C-8594-40B5-B56E-E049C6A8BBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -25,7 +25,20 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -178,9 +191,6 @@
     <t>ANNUAL</t>
   </si>
   <si>
-    <t>MEuro05</t>
-  </si>
-  <si>
     <t>~UnitConversion</t>
   </si>
   <si>
@@ -215,6 +225,9 @@
   </si>
   <si>
     <t>Dummy imports have been deactivated in this model</t>
+  </si>
+  <si>
+    <t>MEuro20</t>
   </si>
 </sst>
 </file>
@@ -2714,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2917,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2940,7 +2953,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="22">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22" t="s">
@@ -2950,7 +2963,7 @@
     </row>
     <row r="6" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>5</v>
@@ -2958,7 +2971,8 @@
     </row>
     <row r="7" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B7" s="22">
-        <v>2005</v>
+        <f>B4</f>
+        <v>2020</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>22</v>
@@ -3022,10 +3036,10 @@
     <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3090,7 +3104,7 @@
   <dimension ref="B3:E34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3132,7 +3146,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="11">
-        <v>2005</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
@@ -3318,7 +3332,7 @@
   <dimension ref="B2:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3338,7 +3352,7 @@
         <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3352,18 +3366,18 @@
         <v>37</v>
       </c>
       <c r="G3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
@@ -3372,7 +3386,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
         <v>36</v>
@@ -3390,10 +3404,10 @@
         <v>38</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
       </c>
       <c r="I5" s="16">
         <v>1000</v>
@@ -3408,10 +3422,10 @@
         <v>36</v>
       </c>
       <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
         <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
       </c>
       <c r="I6" s="16">
         <v>1000</v>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\DemoModels_SelfLearning\DemoS_001_SL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40666B1C-8594-40B5-B56E-E049C6A8BBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E3DA0A-E699-4B3D-93C5-7E525540320A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -228,6 +228,78 @@
   </si>
   <si>
     <t>MEuro20</t>
+  </si>
+  <si>
+    <t>QBtu</t>
+  </si>
+  <si>
+    <t>Billion Kwh</t>
+  </si>
+  <si>
+    <t>B$</t>
+  </si>
+  <si>
+    <t>m$</t>
+  </si>
+  <si>
+    <t>TBtu</t>
+  </si>
+  <si>
+    <t>ktoe</t>
+  </si>
+  <si>
+    <t>mtoe</t>
+  </si>
+  <si>
+    <t>Gwh</t>
+  </si>
+  <si>
+    <t>Gt</t>
+  </si>
+  <si>
+    <t>bEur</t>
+  </si>
+  <si>
+    <t>mEur</t>
+  </si>
+  <si>
+    <t>$/GJ</t>
+  </si>
+  <si>
+    <t>$/bbl</t>
+  </si>
+  <si>
+    <t>$/ton</t>
+  </si>
+  <si>
+    <t>m$/kt</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>bcm</t>
+  </si>
+  <si>
+    <t>mbpd</t>
+  </si>
+  <si>
+    <t>Cents per Kwh</t>
+  </si>
+  <si>
+    <t>$ per GJ</t>
+  </si>
+  <si>
+    <t>GWp</t>
+  </si>
+  <si>
+    <t>mt H2</t>
+  </si>
+  <si>
+    <t>mboe</t>
+  </si>
+  <si>
+    <t>mt LNG</t>
   </si>
 </sst>
 </file>
@@ -2727,7 +2799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
@@ -3101,10 +3173,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B3:E34"/>
+  <dimension ref="B3:E40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3211,112 +3283,282 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17"/>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>1055.55</v>
+      </c>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>3.6</v>
+      </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>1.05555</v>
+      </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>4.1868000000000002E-2</v>
+      </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>41.868000000000002</v>
+      </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>3.5999999999999999E-3</v>
+      </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <v>1000000</v>
+      </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>5.8615199999999996</v>
+      </c>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>1E-3</v>
+      </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
+      </c>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32">
+        <v>37.68</v>
+      </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>2139.4548</v>
+      </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34">
+        <v>2.78</v>
+      </c>
       <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="8">
+        <v>31.536000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="8">
+        <v>5.8615199999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="8">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
